--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646935</v>
+        <v>572993.6190112254</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13433399.66988752</v>
+        <v>13425430.64272131</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8045577.282205185</v>
+        <v>8495676.445326155</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8752548.949930811</v>
+        <v>8541544.111222327</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.396723986040958</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.396723986041431</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.2679782720026</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.21594625443404</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.1725371760949</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>116.8405921356968</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40.53359544450813</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846313</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>181.8567818235473</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="7">
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="G8" t="n">
-        <v>212.5869635239666</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>153.8072380324129</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>83.41747001683075</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.4650355671141</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>48.00547107822148</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>276.3277971504353</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680962</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.64393945254965</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.31259208839314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.91073356940615</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6484612441724</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757136</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>56.48865491052348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>238.1138357058005</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>380.7210372967041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>35.21134837541628</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>140.2348378640724</v>
+        <v>28.78048096121077</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>267.3434267027867</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2448,7 +2450,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189225</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>204.7158181704327</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>162.5876496242946</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>200.8052136229461</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2688,7 +2690,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>184.3755225607023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>195.276863634281</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342292</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>179.0497556307037</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.13920556219509</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>21.5966507535646</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>257.8029449552871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>101.7384833579999</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.7029035467942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9203564757145</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.160548332619828</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H38" t="n">
-        <v>28.93420885558166</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.7133289566194</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>105.0023863360942</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3913,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>88.11276492133774</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>21.13871586091597</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>26.30878201733263</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681224</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25.20972493040523</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>80.0594081514369</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494273</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294289</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R2" t="n">
-        <v>743.6410113056418</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S2" t="n">
-        <v>583.2614020227599</v>
+        <v>589.7227393823961</v>
       </c>
       <c r="T2" t="n">
-        <v>393.8416170062751</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="U2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="V2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="W2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="X2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659117</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772653</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140236</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>642.760956471336</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652796</v>
+        <v>453.3411714548516</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652796</v>
+        <v>263.9213864383672</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487948</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323101</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158253</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188285</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396326</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.8429936158258</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="C5" t="n">
-        <v>181.8429936158258</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330562</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330562</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330562</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079191</v>
+        <v>191.8743094079179</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644764</v>
+        <v>347.1218190644747</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985593</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652812</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652812</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652812</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652812</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652812</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="W5" t="n">
-        <v>560.6825636487961</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="X5" t="n">
-        <v>371.2627786323109</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.2627786323109</v>
+        <v>133.0228471103731</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.5412281508565</v>
+        <v>392.467226628726</v>
       </c>
       <c r="C6" t="n">
-        <v>152.5412281508565</v>
+        <v>218.014197347599</v>
       </c>
       <c r="D6" t="n">
-        <v>152.5412281508565</v>
+        <v>218.014197347599</v>
       </c>
       <c r="E6" t="n">
-        <v>152.5412281508565</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508565</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>67.1341887702423</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772653</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140251</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>649.210157847636</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017075</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652811</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264294</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>525.6547321810258</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>341.9610131673417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U6" t="n">
-        <v>341.9610131673417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V6" t="n">
-        <v>341.9610131673417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W6" t="n">
-        <v>341.9610131673417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X6" t="n">
-        <v>341.9610131673417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.5412281508565</v>
+        <v>560.682563648794</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396374</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2168.459826904655</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C8" t="n">
-        <v>1799.497309964243</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D8" t="n">
-        <v>1441.231611357493</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E8" t="n">
-        <v>1055.443358759249</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>644.4574539696412</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301904</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232724</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904655</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904655</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904655</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904655</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904655</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904655</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904655</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5261380428188</v>
+        <v>581.8870116452108</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0731087616919</v>
+        <v>407.4339823640838</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>258.4995727028326</v>
       </c>
       <c r="E9" t="n">
-        <v>458.901244094985</v>
+        <v>99.26211769737705</v>
       </c>
       <c r="F9" t="n">
-        <v>312.36668612187</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G9" t="n">
-        <v>175.4906923369859</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581917</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V9" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.353274033374</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.501773827841</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.741475062887</v>
+        <v>750.1023486652789</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406002</v>
+        <v>67.74542702828946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367745</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760994</v>
+        <v>1486.072305357837</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.38442316275</v>
+        <v>1100.284052759593</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731427</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181391</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.8114698285347</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C13" t="n">
-        <v>196.8114698285347</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025388</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X13" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.8114698285347</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>80.96928015783305</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3155.791869823214</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>622.8572728234557</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5458,28 +5460,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1959.379186075721</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C17" t="n">
-        <v>1590.416669135309</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5531,7 +5533,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.03827352421</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.979026139843</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.979026139843</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218342</v>
@@ -5671,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>355.929286469144</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1517.887535471215</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1148.925018530803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>790.6593199240526</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>3084.061055432366</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796416</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535336</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y20" t="n">
-        <v>1904.487375535336</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2640.167115151076</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
         <v>2471.230932223169</v>
@@ -5908,52 +5910,52 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
         <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
         <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
         <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T22" t="n">
-        <v>3183.954470231319</v>
+        <v>3015.018287303413</v>
       </c>
       <c r="U22" t="n">
-        <v>2894.851603356963</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V22" t="n">
-        <v>2640.167115151076</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W22" t="n">
-        <v>2640.167115151076</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X22" t="n">
-        <v>2640.167115151076</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y22" t="n">
-        <v>2640.167115151076</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218241</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
@@ -6008,7 +6010,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
@@ -6017,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>532.4548862703364</v>
+        <v>2587.406521530662</v>
       </c>
       <c r="C25" t="n">
-        <v>363.5187033424295</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>714.1033511005761</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>714.1033511005761</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>714.1033511005761</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>714.1033511005761</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X25" t="n">
-        <v>714.1033511005761</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y25" t="n">
-        <v>714.1033511005761</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1027.516222935484</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>641.7279703372401</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>230.7420655476325</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>3122.772272495085</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.00361722497</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X26" t="n">
-        <v>2396.53785896389</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W28" t="n">
-        <v>3070.921333403285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X28" t="n">
-        <v>2873.67197619694</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y28" t="n">
-        <v>2652.87939705341</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1320.35562273557</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6479,7 +6481,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X29" t="n">
-        <v>2097.094794775503</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.955462799692</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>403.4802848832069</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C31" t="n">
-        <v>234.5441019553</v>
+        <v>666.202517612298</v>
       </c>
       <c r="D31" t="n">
-        <v>234.5441019553</v>
+        <v>666.202517612298</v>
       </c>
       <c r="E31" t="n">
-        <v>234.5441019553</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>234.5441019553</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6655,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W31" t="n">
-        <v>631.4698357812242</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X31" t="n">
-        <v>403.4802848832069</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y31" t="n">
-        <v>403.4802848832069</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1548.393281286113</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1179.430764345701</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>821.1650657389509</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1548.393281286113</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2938.196848145805</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C34" t="n">
-        <v>2769.260665217898</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D34" t="n">
-        <v>2619.144025805562</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>483.8710453614353</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>336.981097863525</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>169.2782612382439</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X34" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y34" t="n">
-        <v>3119.845312976045</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694473</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>764.341133147311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490667</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218343</v>
@@ -6935,22 +6937,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3318.372944505515</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734407</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758595</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>2790.283754563413</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>2621.347571635506</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X37" t="n">
-        <v>920.887005818185</v>
+        <v>3192.724798537183</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.887005818185</v>
+        <v>2971.932219393653</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392149</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>552.8079389392149</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E38" t="n">
-        <v>552.8079389392149</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F38" t="n">
-        <v>552.8079389392149</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G38" t="n">
-        <v>137.7354887842113</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2923.164777635402</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>2754.228594707495</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>2604.111955295159</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
         <v>2471.23093222317</v>
@@ -7330,52 +7332,52 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="Y40" t="n">
-        <v>3104.813242465641</v>
+        <v>2652.87939705341</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218343</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218343</v>
@@ -7409,13 +7411,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7424,7 +7426,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382.1280466398576</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="C43" t="n">
-        <v>382.1280466398576</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>323.2177459073006</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>323.2177459073006</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>155.5149092820195</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7597,22 +7599,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>899.5347675748355</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>899.5347675748355</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V43" t="n">
-        <v>899.5347675748355</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W43" t="n">
-        <v>610.1175975378749</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X43" t="n">
-        <v>382.1280466398576</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="Y43" t="n">
-        <v>382.1280466398576</v>
+        <v>471.1308394896937</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1715.892666966217</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2769.260665217899</v>
+        <v>2833.334320392929</v>
       </c>
       <c r="C46" t="n">
-        <v>2769.260665217899</v>
+        <v>2664.398137465023</v>
       </c>
       <c r="D46" t="n">
-        <v>2619.144025805564</v>
+        <v>2664.398137465023</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>2664.398137465023</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>2664.398137465023</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>2496.695300839741</v>
       </c>
       <c r="H46" t="n">
         <v>2471.23093222317</v>
@@ -7828,28 +7830,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T46" t="n">
-        <v>3244.737732567316</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U46" t="n">
-        <v>3244.737732567316</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V46" t="n">
-        <v>2990.053244361429</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="W46" t="n">
-        <v>2990.053244361429</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="X46" t="n">
-        <v>2990.053244361429</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="Y46" t="n">
-        <v>2769.260665217899</v>
+        <v>3014.982785223169</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637385</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399028</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>119.0745931339338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.968575157639938</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988688</v>
+        <v>25.91829388988725</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871043</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>43.502266418947</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681725</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310537</v>
+        <v>45.27499998310574</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459971</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715758</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120984</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>73.49127351643264</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>189.510504444588</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>296.2572410943612</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368123</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121487</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>117.1114850108928</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409146</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265831</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>13.55281596845396</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098407</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553077</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.34308217384573</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
         <v>206.7802557954962</v>
@@ -22996,7 +22998,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>234.0491352390154</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976608</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2837713196602</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>173.945020437722</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="9">
@@ -23109,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>61.65174237655313</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>13.22994759380546</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23188,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>97.41557694470977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>101.2177245773855</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>130.5482485912761</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.9715335656627</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>27.26433768453284</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>35.80215787152343</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.70473944880621</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.772586778758836</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>97.95568926599788</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>313.2424457679456</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.02380761802752</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.209332775557698</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>215.7838235834857</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>79.31411141209679</v>
+        <v>190.7684683149584</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>139.5326190389247</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873195</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>35.80215787152386</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>52.23298768420949</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24415,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>14.83313110573653</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>248.3340760291588</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24500,13 +24502,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>126.9470448471888</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>30.43279175475612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>190.6813450477654</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2947570843741</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>144.4291575054636</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>128.4349937007665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>43.01653155632088</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25129,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.88174980530059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>97.95568926599697</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>102.027213455556</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H38" t="n">
-        <v>265.6735555317388</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>14.88174980530036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>50.83562031954975</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25679,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>145.9927856228078</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>56.64224999298304</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>198.4102334152532</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>328.3742596033503</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>145.9927856228079</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>119.5452899839156</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>139.4895411247323</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>439627.1513684808</v>
+        <v>442212.6061974706</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>438242.5172819219</v>
+        <v>428308.8015061949</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>660895.7001297413</v>
+        <v>440207.5030463671</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162296.5922879256</v>
+        <v>162998.3585986512</v>
       </c>
       <c r="C2" t="n">
-        <v>161920.7630358596</v>
+        <v>159224.4687538765</v>
       </c>
       <c r="D2" t="n">
-        <v>245978.4293365058</v>
+        <v>162454.1163147804</v>
       </c>
       <c r="E2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="G2" t="n">
         <v>312588.9285003117</v>
@@ -26332,25 +26334,25 @@
         <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="K2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="L2" t="n">
-        <v>312588.9285003119</v>
-      </c>
       <c r="M2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="N2" t="n">
-        <v>312588.9285003119</v>
-      </c>
       <c r="O2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
         <v>312588.9285003117</v>
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>5.17617309014895e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669091</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608608</v>
+        <v>160456.4418678776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4126.730082121348</v>
+        <v>4828.49639284714</v>
       </c>
       <c r="C4" t="n">
-        <v>3750.900830055213</v>
+        <v>1054.606548072335</v>
       </c>
       <c r="D4" t="n">
-        <v>1022.132783314009</v>
+        <v>4284.254108976167</v>
       </c>
       <c r="E4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.6469890061461</v>
+      </c>
+      <c r="G4" t="n">
         <v>584.646989006123</v>
       </c>
-      <c r="F4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,13 +26487,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266546</v>
+        <v>-490172.8407266544</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941902</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514468</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699674</v>
+        <v>-389436.7026837558</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499125</v>
+      </c>
+      <c r="G6" t="n">
         <v>237697.9409499123</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>237697.9409499123</v>
+      </c>
+      <c r="J6" t="n">
+        <v>188632.9962213676</v>
+      </c>
+      <c r="K6" t="n">
         <v>237697.9409499121</v>
       </c>
-      <c r="H6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.9962213679</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499123</v>
-      </c>
       <c r="L6" t="n">
-        <v>147954.5628186421</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="M6" t="n">
-        <v>165606.5883338262</v>
+        <v>77241.49908203466</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499124</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499124</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="P6" t="n">
         <v>237697.9409499123</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,13 +26807,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26823,7 +26825,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247798</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556133</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761288</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761291</v>
+        <v>643.8758682359735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761288</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621732</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672895</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590854</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628874</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288822</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32017,7 +32019,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781694</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33667,7 +33669,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
         <v>738.1512123099059</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33898,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781423</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973023</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916013</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855714</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37315,7 +37317,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37789,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
